--- a/branches/master/StructureDefinition-hiv-composition.xlsx
+++ b/branches/master/StructureDefinition-hiv-composition.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/StructureDefinition/hiv-composition</t>
+    <t>http://jembi.org/fhir/hiv-casereporting/StructureDefinition/hiv-composition</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-15T14:41:26+00:00</t>
+    <t>2022-11-24T14:29:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1508,7 +1508,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://example.com/fhir/example/CodeSystem/cs-case-report-sections"/&gt;
+    &lt;system value="http://jembi.org/fhir/hiv-casereporting/CodeSystem/cs-case-report-sections"/&gt;
     &lt;code value="CLIENT-REGISTRATION"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1524,14 +1524,14 @@
     <t>hivPatient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/hiv-patient)
+    <t xml:space="preserve">Reference(http://jembi.org/fhir/hiv-casereporting/StructureDefinition/hiv-patient)
 </t>
   </si>
   <si>
     <t>hivRelatedPerson</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/hiv-related-person)
+    <t xml:space="preserve">Reference(http://jembi.org/fhir/hiv-casereporting/StructureDefinition/hiv-related-person)
 </t>
   </si>
   <si>
@@ -1543,7 +1543,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://example.com/fhir/example/CodeSystem/cs-case-report-sections"/&gt;
+    &lt;system value="http://jembi.org/fhir/hiv-casereporting/CodeSystem/cs-case-report-sections"/&gt;
     &lt;code value="HIV-DIAGNOSIS"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1552,42 +1552,42 @@
     <t>5</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/hiv-diagnosis|http://example.com/fhir/example/StructureDefinition/hiv-disgnosis-encounter|http://example.com/fhir/example/StructureDefinition/hiv-recency-test-conducted|http://example.com/fhir/example/StructureDefinition/hiv-recency-result|http://example.com/fhir/example/StructureDefinition/date-tested-for-hiv)
+    <t xml:space="preserve">Reference(http://jembi.org/fhir/hiv-casereporting/StructureDefinition/hiv-diagnosis|http://jembi.org/fhir/hiv-casereporting/StructureDefinition/hiv-disgnosis-encounter|http://jembi.org/fhir/hiv-casereporting/StructureDefinition/hiv-recency-test-conducted|http://jembi.org/fhir/hiv-casereporting/StructureDefinition/hiv-recency-result|http://jembi.org/fhir/hiv-casereporting/StructureDefinition/date-tested-for-hiv)
 </t>
   </si>
   <si>
     <t>hivDiagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/hiv-diagnosis)
+    <t xml:space="preserve">Reference(http://jembi.org/fhir/hiv-casereporting/StructureDefinition/hiv-diagnosis)
 </t>
   </si>
   <si>
     <t>hivDiagnosisEncounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/hiv-disgnosis-encounter)
+    <t xml:space="preserve">Reference(http://jembi.org/fhir/hiv-casereporting/StructureDefinition/hiv-disgnosis-encounter)
 </t>
   </si>
   <si>
     <t>hivRecencyTestConducted</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/hiv-recency-test-conducted)
+    <t xml:space="preserve">Reference(http://jembi.org/fhir/hiv-casereporting/StructureDefinition/hiv-recency-test-conducted)
 </t>
   </si>
   <si>
     <t>hivRecencyResult</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/hiv-recency-result)
+    <t xml:space="preserve">Reference(http://jembi.org/fhir/hiv-casereporting/StructureDefinition/hiv-recency-result)
 </t>
   </si>
   <si>
     <t>hivTestDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/date-tested-for-hiv)
+    <t xml:space="preserve">Reference(http://jembi.org/fhir/hiv-casereporting/StructureDefinition/date-tested-for-hiv)
 </t>
   </si>
   <si>
@@ -1599,7 +1599,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://example.com/fhir/example/CodeSystem/cs-case-report-sections"/&gt;
+    &lt;system value="http://jembi.org/fhir/hiv-casereporting/CodeSystem/cs-case-report-sections"/&gt;
     &lt;code value="HIV-ENTRY-TO-CARE"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1608,28 +1608,28 @@
     <t>2</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/hiv-episode-of-care|http://example.com/fhir/example/StructureDefinition/hiv-clinical-encounter|http://example.com/fhir/example/StructureDefinition/hiv-transfer-out)
+    <t xml:space="preserve">Reference(http://jembi.org/fhir/hiv-casereporting/StructureDefinition/hiv-episode-of-care|http://jembi.org/fhir/hiv-casereporting/StructureDefinition/hiv-clinical-encounter|http://jembi.org/fhir/hiv-casereporting/StructureDefinition/hiv-transfer-out)
 </t>
   </si>
   <si>
     <t>hivEpisodeOfCare</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/hiv-episode-of-care)
+    <t xml:space="preserve">Reference(http://jembi.org/fhir/hiv-casereporting/StructureDefinition/hiv-episode-of-care)
 </t>
   </si>
   <si>
     <t>hivClinicalEncounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/hiv-clinical-encounter)
+    <t xml:space="preserve">Reference(http://jembi.org/fhir/hiv-casereporting/StructureDefinition/hiv-clinical-encounter)
 </t>
   </si>
   <si>
     <t>hivTransferOut</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/hiv-transfer-out)
+    <t xml:space="preserve">Reference(http://jembi.org/fhir/hiv-casereporting/StructureDefinition/hiv-transfer-out)
 </t>
   </si>
   <si>
@@ -1641,27 +1641,27 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://example.com/fhir/example/CodeSystem/cs-case-report-sections"/&gt;
+    &lt;system value="http://jembi.org/fhir/hiv-casereporting/CodeSystem/cs-case-report-sections"/&gt;
     &lt;code value="ARV-TREATMENT"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/hiv-arv-treatment|http://example.com/fhir/example/StructureDefinition/hiv-med-req)
+    <t xml:space="preserve">Reference(http://jembi.org/fhir/hiv-casereporting/StructureDefinition/hiv-arv-treatment|http://jembi.org/fhir/hiv-casereporting/StructureDefinition/hiv-med-req)
 </t>
   </si>
   <si>
     <t>arvTreatment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/hiv-arv-treatment)
+    <t xml:space="preserve">Reference(http://jembi.org/fhir/hiv-casereporting/StructureDefinition/hiv-arv-treatment)
 </t>
   </si>
   <si>
     <t>hivCareMedicationRequest</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/hiv-med-req)
+    <t xml:space="preserve">Reference(http://jembi.org/fhir/hiv-casereporting/StructureDefinition/hiv-med-req)
 </t>
   </si>
   <si>
@@ -1673,13 +1673,13 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://example.com/fhir/example/CodeSystem/cs-case-report-sections"/&gt;
+    &lt;system value="http://jembi.org/fhir/hiv-casereporting/CodeSystem/cs-case-report-sections"/&gt;
     &lt;code value="CD4"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/hiv-cd4-test)
+    <t xml:space="preserve">Reference(http://jembi.org/fhir/hiv-casereporting/StructureDefinition/hiv-cd4-test)
 </t>
   </si>
   <si>
@@ -1691,27 +1691,27 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://example.com/fhir/example/CodeSystem/cs-case-report-sections"/&gt;
+    &lt;system value="http://jembi.org/fhir/hiv-casereporting/CodeSystem/cs-case-report-sections"/&gt;
     &lt;code value="VIRAL-SUPPRESSION"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/hiv-viral-load-suppression|http://example.com/fhir/example/StructureDefinition/vl-procedure-info)
+    <t xml:space="preserve">Reference(http://jembi.org/fhir/hiv-casereporting/StructureDefinition/hiv-viral-load-suppression|http://jembi.org/fhir/hiv-casereporting/StructureDefinition/vl-procedure-info)
 </t>
   </si>
   <si>
     <t>viralLoadSuppression</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/hiv-viral-load-suppression)
+    <t xml:space="preserve">Reference(http://jembi.org/fhir/hiv-casereporting/StructureDefinition/hiv-viral-load-suppression)
 </t>
   </si>
   <si>
     <t>vlProcedureInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/vl-procedure-info)
+    <t xml:space="preserve">Reference(http://jembi.org/fhir/hiv-casereporting/StructureDefinition/vl-procedure-info)
 </t>
   </si>
   <si>
@@ -1723,13 +1723,13 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://example.com/fhir/example/CodeSystem/cs-case-report-sections"/&gt;
+    &lt;system value="http://jembi.org/fhir/hiv-casereporting/CodeSystem/cs-case-report-sections"/&gt;
     &lt;code value="DEATH"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/death-obs)
+    <t xml:space="preserve">Reference(http://jembi.org/fhir/hiv-casereporting/StructureDefinition/death-obs)
 </t>
   </si>
 </sst>
